--- a/nriss-patch-1/ig/ValueSet-tddui-encounter-type-vs.xlsx
+++ b/nriss-patch-1/ig/ValueSet-tddui-encounter-type-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,13 +105,13 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type|2.1.0</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-evenement-ssiad-cisis</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-type-evenement-ssiad-cisis|20250624152100</t>
   </si>
   <si>
     <t>Codes</t>
